--- a/static/download/2021/RP3_Flights_2021_Jan_Apr.xlsx
+++ b/static/download/2021/RP3_Flights_2021_Jan_Apr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="166">
   <si>
     <t>Data source</t>
   </si>
@@ -49,369 +49,372 @@
     <t>Period: JAN-APR</t>
   </si>
   <si>
+    <t>SES Area (RP3)</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Days</t>
+  </si>
+  <si>
+    <t>Total IFR flights</t>
+  </si>
+  <si>
+    <t>Avg. Daily</t>
+  </si>
+  <si>
+    <t>% change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019  </t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>Entity</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>cum. change vs. same period in previous year (%)</t>
+  </si>
+  <si>
+    <t>Select</t>
+  </si>
+  <si>
+    <t>SES AREA RP3</t>
+  </si>
+  <si>
+    <t>Jan-15</t>
+  </si>
+  <si>
+    <t>JAN</t>
+  </si>
+  <si>
+    <t>Feb-15</t>
+  </si>
+  <si>
+    <t>FEB</t>
+  </si>
+  <si>
+    <t>Mar-15</t>
+  </si>
+  <si>
+    <t>MAR</t>
+  </si>
+  <si>
+    <t>Apr-15</t>
+  </si>
+  <si>
+    <t>APR</t>
+  </si>
+  <si>
+    <t>May-15</t>
+  </si>
+  <si>
+    <t>MAY</t>
+  </si>
+  <si>
+    <t>Jun-15</t>
+  </si>
+  <si>
+    <t>JUN</t>
+  </si>
+  <si>
+    <t>Jul-15</t>
+  </si>
+  <si>
+    <t>JUL</t>
+  </si>
+  <si>
+    <t>Aug-15</t>
+  </si>
+  <si>
+    <t>AUG</t>
+  </si>
+  <si>
+    <t>Sep-15</t>
+  </si>
+  <si>
+    <t>SEP</t>
+  </si>
+  <si>
+    <t>Oct-15</t>
+  </si>
+  <si>
+    <t>OCT</t>
+  </si>
+  <si>
+    <t>Nov-15</t>
+  </si>
+  <si>
+    <t>NOV</t>
+  </si>
+  <si>
+    <t>Dec-15</t>
+  </si>
+  <si>
+    <t>DEC</t>
+  </si>
+  <si>
+    <t>Jan-16</t>
+  </si>
+  <si>
+    <t>Feb-16</t>
+  </si>
+  <si>
+    <t>Mar-16</t>
+  </si>
+  <si>
+    <t>Apr-16</t>
+  </si>
+  <si>
+    <t>May-16</t>
+  </si>
+  <si>
+    <t>Jun-16</t>
+  </si>
+  <si>
+    <t>Jul-16</t>
+  </si>
+  <si>
+    <t>Aug-16</t>
+  </si>
+  <si>
+    <t>Sep-16</t>
+  </si>
+  <si>
+    <t>Oct-16</t>
+  </si>
+  <si>
+    <t>Nov-16</t>
+  </si>
+  <si>
+    <t>Dec-16</t>
+  </si>
+  <si>
+    <t>Jan-17</t>
+  </si>
+  <si>
+    <t>Feb-17</t>
+  </si>
+  <si>
+    <t>Mar-17</t>
+  </si>
+  <si>
+    <t>Apr-17</t>
+  </si>
+  <si>
+    <t>May-17</t>
+  </si>
+  <si>
+    <t>Jun-17</t>
+  </si>
+  <si>
+    <t>Jul-17</t>
+  </si>
+  <si>
+    <t>Aug-17</t>
+  </si>
+  <si>
+    <t>Sep-17</t>
+  </si>
+  <si>
+    <t>Oct-17</t>
+  </si>
+  <si>
+    <t>Nov-17</t>
+  </si>
+  <si>
+    <t>Dec-17</t>
+  </si>
+  <si>
+    <t>Jan-18</t>
+  </si>
+  <si>
+    <t>Feb-18</t>
+  </si>
+  <si>
+    <t>Mar-18</t>
+  </si>
+  <si>
+    <t>Apr-18</t>
+  </si>
+  <si>
+    <t>May-18</t>
+  </si>
+  <si>
+    <t>Jun-18</t>
+  </si>
+  <si>
+    <t>Jul-18</t>
+  </si>
+  <si>
+    <t>Aug-18</t>
+  </si>
+  <si>
+    <t>Sep-18</t>
+  </si>
+  <si>
+    <t>Oct-18</t>
+  </si>
+  <si>
+    <t>Nov-18</t>
+  </si>
+  <si>
+    <t>Dec-18</t>
+  </si>
+  <si>
+    <t>Jan-19</t>
+  </si>
+  <si>
+    <t>Feb-19</t>
+  </si>
+  <si>
+    <t>Mar-19</t>
+  </si>
+  <si>
+    <t>Apr-19</t>
+  </si>
+  <si>
+    <t>May-19</t>
+  </si>
+  <si>
+    <t>Jun-19</t>
+  </si>
+  <si>
+    <t>Jul-19</t>
+  </si>
+  <si>
+    <t>Aug-19</t>
+  </si>
+  <si>
+    <t>Sep-19</t>
+  </si>
+  <si>
+    <t>Oct-19</t>
+  </si>
+  <si>
+    <t>Nov-19</t>
+  </si>
+  <si>
+    <t>Dec-19</t>
+  </si>
+  <si>
+    <t>Jan-20</t>
+  </si>
+  <si>
+    <t>Feb-20</t>
+  </si>
+  <si>
+    <t>Mar-20</t>
+  </si>
+  <si>
+    <t>Apr-20</t>
+  </si>
+  <si>
+    <t>May-20</t>
+  </si>
+  <si>
+    <t>Jun-20</t>
+  </si>
+  <si>
+    <t>Jul-20</t>
+  </si>
+  <si>
+    <t>Aug-20</t>
+  </si>
+  <si>
+    <t>Sep-20</t>
+  </si>
+  <si>
+    <t>Oct-20</t>
+  </si>
+  <si>
+    <t>Nov-20</t>
+  </si>
+  <si>
+    <t>Dec-20</t>
+  </si>
+  <si>
+    <t>Jan-21</t>
+  </si>
+  <si>
+    <t>Feb-21</t>
+  </si>
+  <si>
+    <t>Mar-21</t>
+  </si>
+  <si>
+    <t>Apr-21</t>
+  </si>
+  <si>
+    <t>May-21</t>
+  </si>
+  <si>
+    <t>Jun-21</t>
+  </si>
+  <si>
+    <t>Jul-21</t>
+  </si>
+  <si>
+    <t>Aug-21</t>
+  </si>
+  <si>
+    <t>Sep-21</t>
+  </si>
+  <si>
+    <t>Oct-21</t>
+  </si>
+  <si>
+    <t>Nov-21</t>
+  </si>
+  <si>
+    <t>Dec-21</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Avg. daily</t>
+  </si>
+  <si>
+    <t>Entity (based on FIR)</t>
+  </si>
+  <si>
     <t>SES Area</t>
   </si>
   <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>Days</t>
-  </si>
-  <si>
-    <t>Total IFR flights</t>
-  </si>
-  <si>
-    <t>Avg. Daily</t>
-  </si>
-  <si>
-    <t>% change</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019  </t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>2021</t>
-  </si>
-  <si>
-    <t>2022</t>
-  </si>
-  <si>
-    <t>2023</t>
-  </si>
-  <si>
-    <t>2024</t>
-  </si>
-  <si>
-    <t>Entity</t>
-  </si>
-  <si>
-    <t>Month</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>cum. change vs. same period in previous year (%)</t>
-  </si>
-  <si>
-    <t>Select</t>
-  </si>
-  <si>
-    <t>SES AREA RP2</t>
-  </si>
-  <si>
-    <t>Jan-15</t>
-  </si>
-  <si>
-    <t>JAN</t>
-  </si>
-  <si>
-    <t>Feb-15</t>
-  </si>
-  <si>
-    <t>FEB</t>
-  </si>
-  <si>
-    <t>Mar-15</t>
-  </si>
-  <si>
-    <t>MAR</t>
-  </si>
-  <si>
-    <t>Apr-15</t>
-  </si>
-  <si>
-    <t>APR</t>
-  </si>
-  <si>
-    <t>May-15</t>
-  </si>
-  <si>
-    <t>MAY</t>
-  </si>
-  <si>
-    <t>Jun-15</t>
-  </si>
-  <si>
-    <t>JUN</t>
-  </si>
-  <si>
-    <t>Jul-15</t>
-  </si>
-  <si>
-    <t>JUL</t>
-  </si>
-  <si>
-    <t>Aug-15</t>
-  </si>
-  <si>
-    <t>AUG</t>
-  </si>
-  <si>
-    <t>Sep-15</t>
-  </si>
-  <si>
-    <t>SEP</t>
-  </si>
-  <si>
-    <t>Oct-15</t>
-  </si>
-  <si>
-    <t>OCT</t>
-  </si>
-  <si>
-    <t>Nov-15</t>
-  </si>
-  <si>
-    <t>NOV</t>
-  </si>
-  <si>
-    <t>Dec-15</t>
-  </si>
-  <si>
-    <t>DEC</t>
-  </si>
-  <si>
-    <t>Jan-16</t>
-  </si>
-  <si>
-    <t>Feb-16</t>
-  </si>
-  <si>
-    <t>Mar-16</t>
-  </si>
-  <si>
-    <t>Apr-16</t>
-  </si>
-  <si>
-    <t>May-16</t>
-  </si>
-  <si>
-    <t>Jun-16</t>
-  </si>
-  <si>
-    <t>Jul-16</t>
-  </si>
-  <si>
-    <t>Aug-16</t>
-  </si>
-  <si>
-    <t>Sep-16</t>
-  </si>
-  <si>
-    <t>Oct-16</t>
-  </si>
-  <si>
-    <t>Nov-16</t>
-  </si>
-  <si>
-    <t>Dec-16</t>
-  </si>
-  <si>
-    <t>Jan-17</t>
-  </si>
-  <si>
-    <t>Feb-17</t>
-  </si>
-  <si>
-    <t>Mar-17</t>
-  </si>
-  <si>
-    <t>Apr-17</t>
-  </si>
-  <si>
-    <t>May-17</t>
-  </si>
-  <si>
-    <t>Jun-17</t>
-  </si>
-  <si>
-    <t>Jul-17</t>
-  </si>
-  <si>
-    <t>Aug-17</t>
-  </si>
-  <si>
-    <t>Sep-17</t>
-  </si>
-  <si>
-    <t>Oct-17</t>
-  </si>
-  <si>
-    <t>Nov-17</t>
-  </si>
-  <si>
-    <t>Dec-17</t>
-  </si>
-  <si>
-    <t>Jan-18</t>
-  </si>
-  <si>
-    <t>Feb-18</t>
-  </si>
-  <si>
-    <t>Mar-18</t>
-  </si>
-  <si>
-    <t>Apr-18</t>
-  </si>
-  <si>
-    <t>May-18</t>
-  </si>
-  <si>
-    <t>Jun-18</t>
-  </si>
-  <si>
-    <t>Jul-18</t>
-  </si>
-  <si>
-    <t>Aug-18</t>
-  </si>
-  <si>
-    <t>Sep-18</t>
-  </si>
-  <si>
-    <t>Oct-18</t>
-  </si>
-  <si>
-    <t>Nov-18</t>
-  </si>
-  <si>
-    <t>Dec-18</t>
-  </si>
-  <si>
-    <t>Jan-19</t>
-  </si>
-  <si>
-    <t>Feb-19</t>
-  </si>
-  <si>
-    <t>Mar-19</t>
-  </si>
-  <si>
-    <t>Apr-19</t>
-  </si>
-  <si>
-    <t>May-19</t>
-  </si>
-  <si>
-    <t>Jun-19</t>
-  </si>
-  <si>
-    <t>Jul-19</t>
-  </si>
-  <si>
-    <t>Aug-19</t>
-  </si>
-  <si>
-    <t>Sep-19</t>
-  </si>
-  <si>
-    <t>Oct-19</t>
-  </si>
-  <si>
-    <t>Nov-19</t>
-  </si>
-  <si>
-    <t>Dec-19</t>
-  </si>
-  <si>
-    <t>Jan-20</t>
-  </si>
-  <si>
-    <t>Feb-20</t>
-  </si>
-  <si>
-    <t>Mar-20</t>
-  </si>
-  <si>
-    <t>Apr-20</t>
-  </si>
-  <si>
-    <t>May-20</t>
-  </si>
-  <si>
-    <t>Jun-20</t>
-  </si>
-  <si>
-    <t>Jul-20</t>
-  </si>
-  <si>
-    <t>Aug-20</t>
-  </si>
-  <si>
-    <t>Sep-20</t>
-  </si>
-  <si>
-    <t>Oct-20</t>
-  </si>
-  <si>
-    <t>Nov-20</t>
-  </si>
-  <si>
-    <t>Dec-20</t>
-  </si>
-  <si>
-    <t>Jan-21</t>
-  </si>
-  <si>
-    <t>Feb-21</t>
-  </si>
-  <si>
-    <t>Mar-21</t>
-  </si>
-  <si>
-    <t>Apr-21</t>
-  </si>
-  <si>
-    <t>May-21</t>
-  </si>
-  <si>
-    <t>Jun-21</t>
-  </si>
-  <si>
-    <t>Jul-21</t>
-  </si>
-  <si>
-    <t>Aug-21</t>
-  </si>
-  <si>
-    <t>Sep-21</t>
-  </si>
-  <si>
-    <t>Oct-21</t>
-  </si>
-  <si>
-    <t>Nov-21</t>
-  </si>
-  <si>
-    <t>Dec-21</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Avg. daily</t>
-  </si>
-  <si>
-    <t>Entity (based on FIR)</t>
-  </si>
-  <si>
     <t>Austria</t>
   </si>
   <si>
@@ -496,9 +499,6 @@
     <t>Switzerland</t>
   </si>
   <si>
-    <t>United Kingdom</t>
-  </si>
-  <si>
     <t>Change date</t>
   </si>
   <si>
@@ -506,6 +506,12 @@
   </si>
   <si>
     <t>Comment</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>UK removed from SES area</t>
   </si>
 </sst>
 </file>
@@ -614,7 +620,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="38">
     <border/>
     <border>
       <left/>
@@ -751,9 +757,7 @@
         <color rgb="FF000000"/>
       </left>
       <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
+      <top/>
       <bottom/>
     </border>
     <border>
@@ -800,14 +804,6 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
       <bottom/>
     </border>
     <border>
@@ -934,7 +930,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="103">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -959,75 +955,78 @@
     <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="0"/>
     </xf>
+    <xf borderId="3" fillId="0" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="2" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="3" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="3" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="3" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="6" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="7" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="8" fillId="4" fontId="8" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="6" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="9" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="9" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="10" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="3" fillId="3" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="4" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="3" fontId="2" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="3" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="3" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="3" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="7" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="8" fillId="4" fontId="8" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="9" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="3" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="9" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
     <xf borderId="3" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
     </xf>
@@ -1082,88 +1081,85 @@
     <xf borderId="23" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="24" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
     <xf borderId="1" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="25" fillId="3" fontId="9" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="24" fillId="3" fontId="9" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="9" fillId="3" fontId="6" numFmtId="17" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="26" fillId="3" fontId="6" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="25" fillId="3" fontId="6" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="26" fillId="3" fontId="9" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="27" fillId="3" fontId="9" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="28" fillId="3" fontId="9" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="26" fillId="3" fontId="6" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="27" fillId="3" fontId="6" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="28" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="29" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="25" fillId="3" fontId="6" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="26" fillId="3" fontId="6" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="26" fillId="3" fontId="6" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="27" fillId="3" fontId="6" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="28" fillId="3" fontId="6" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="30" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="29" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="31" fillId="3" fontId="9" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="30" fillId="3" fontId="9" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="11" fillId="3" fontId="6" numFmtId="17" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="32" fillId="3" fontId="6" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="31" fillId="3" fontId="6" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="32" fillId="3" fontId="6" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="33" fillId="3" fontId="6" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="34" fillId="3" fontId="6" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="32" fillId="3" fontId="6" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="33" fillId="3" fontId="6" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="34" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="21" fillId="3" fontId="6" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="21" fillId="3" fontId="6" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="26" fillId="3" fontId="6" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="35" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="21" fillId="3" fontId="6" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="36" fillId="3" fontId="9" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="21" fillId="3" fontId="6" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="37" fillId="3" fontId="6" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="27" fillId="3" fontId="6" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="33" fillId="3" fontId="9" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="36" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="37" fillId="3" fontId="9" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="38" fillId="3" fontId="6" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="34" fillId="3" fontId="9" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="33" fillId="3" fontId="6" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="32" fillId="3" fontId="6" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="19" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1175,13 +1171,13 @@
     <xf borderId="1" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="25" fillId="3" fontId="9" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="24" fillId="3" fontId="9" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="3" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="31" fillId="3" fontId="9" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="30" fillId="3" fontId="9" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1214,32 +1210,26 @@
     <xf borderId="16" fillId="3" fontId="6" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="33" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="32" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="9" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="6" numFmtId="17" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="9" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="9" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="bottom"/>
@@ -1318,7 +1308,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="8">
-        <v>44328.0</v>
+        <v>44351.0</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>6</v>
@@ -1391,11 +1381,11 @@
         <v>120.0</v>
       </c>
       <c r="C6" s="22">
-        <v>2719656.0</v>
+        <v>2584859.0</v>
       </c>
       <c r="D6" s="22">
         <f t="shared" ref="D6:D12" si="1">C6/B6</f>
-        <v>22663.8</v>
+        <v>21540.49167</v>
       </c>
       <c r="E6" s="23"/>
       <c r="F6" s="17" t="s">
@@ -1410,15 +1400,15 @@
         <v>121.0</v>
       </c>
       <c r="C7" s="25">
-        <v>2792940.0</v>
+        <v>2660375.0</v>
       </c>
       <c r="D7" s="25">
         <f t="shared" si="1"/>
-        <v>23082.14876</v>
+        <v>21986.57025</v>
       </c>
       <c r="E7" s="26">
         <f t="shared" ref="E7:E12" si="2">D7/D6-1</f>
-        <v>0.01845889746</v>
+        <v>0.02070883934</v>
       </c>
       <c r="F7" s="17" t="s">
         <v>9</v>
@@ -1432,15 +1422,15 @@
         <v>120.0</v>
       </c>
       <c r="C8" s="25">
-        <v>2877216.0</v>
+        <v>2745673.0</v>
       </c>
       <c r="D8" s="25">
         <f t="shared" si="1"/>
-        <v>23976.8</v>
+        <v>22880.60833</v>
       </c>
       <c r="E8" s="26">
         <f t="shared" si="2"/>
-        <v>0.03875944345</v>
+        <v>0.0406629172</v>
       </c>
       <c r="F8" s="17" t="s">
         <v>9</v>
@@ -1454,15 +1444,15 @@
         <v>120.0</v>
       </c>
       <c r="C9" s="25">
-        <v>2974390.0</v>
+        <v>2843051.0</v>
       </c>
       <c r="D9" s="25">
         <f t="shared" si="1"/>
-        <v>24786.58333</v>
+        <v>23692.09167</v>
       </c>
       <c r="E9" s="26">
         <f t="shared" si="2"/>
-        <v>0.03377362005</v>
+        <v>0.03546598593</v>
       </c>
       <c r="F9" s="17" t="s">
         <v>9</v>
@@ -1476,15 +1466,15 @@
         <v>120.0</v>
       </c>
       <c r="C10" s="25">
-        <v>3053004.0</v>
+        <v>2927152.0</v>
       </c>
       <c r="D10" s="25">
         <f t="shared" si="1"/>
-        <v>25441.7</v>
+        <v>24392.93333</v>
       </c>
       <c r="E10" s="26">
         <f t="shared" si="2"/>
-        <v>0.02643029327</v>
+        <v>0.02958124916</v>
       </c>
       <c r="F10" s="17" t="s">
         <v>9</v>
@@ -1498,15 +1488,15 @@
         <v>121.0</v>
       </c>
       <c r="C11" s="25">
-        <v>1991404.0</v>
+        <v>1908235.0</v>
       </c>
       <c r="D11" s="25">
         <f t="shared" si="1"/>
-        <v>16457.8843</v>
+        <v>15770.53719</v>
       </c>
       <c r="E11" s="26">
         <f t="shared" si="2"/>
-        <v>-0.3531138132</v>
+        <v>-0.3534792649</v>
       </c>
       <c r="F11" s="17" t="s">
         <v>9</v>
@@ -1520,15 +1510,15 @@
         <v>120.0</v>
       </c>
       <c r="C12" s="25">
-        <v>1043802.0</v>
+        <v>1006576.0</v>
       </c>
       <c r="D12" s="25">
         <f t="shared" si="1"/>
-        <v>8698.35</v>
+        <v>8388.133333</v>
       </c>
       <c r="E12" s="26">
         <f t="shared" si="2"/>
-        <v>-0.4714782385</v>
+        <v>-0.4681136583</v>
       </c>
       <c r="F12" s="17" t="s">
         <v>9</v>
@@ -1626,9 +1616,9 @@
       <c r="A2" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="31">
         <f>ERT_FLTS_YY!B2</f>
-        <v>44328</v>
+        <v>44351</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>6</v>
@@ -1643,80 +1633,80 @@
       <c r="F2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="31"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
     </row>
     <row r="3" ht="13.5" customHeight="1">
-      <c r="A3" s="33"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
+      <c r="A3" s="34"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
     </row>
     <row r="4" ht="51.0" customHeight="1">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="D4" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="38" t="s">
+      <c r="E4" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="38" t="s">
+      <c r="F4" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="38" t="s">
+      <c r="G4" s="39" t="s">
         <v>15</v>
       </c>
       <c r="H4" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="39" t="s">
+      <c r="I4" s="40" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" ht="12.0" customHeight="1">
-      <c r="A5" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="41">
+      <c r="A5" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="42">
         <v>2015.0</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="43" t="s">
+      <c r="D5" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="44">
+      <c r="E5" s="45">
         <v>31.0</v>
       </c>
-      <c r="F5" s="45">
-        <v>640854.0</v>
-      </c>
-      <c r="G5" s="46">
+      <c r="F5" s="46">
+        <v>608704.0</v>
+      </c>
+      <c r="G5" s="47">
         <f t="shared" ref="G5:G80" si="1">F5/E5</f>
-        <v>20672.70968</v>
-      </c>
-      <c r="H5" s="47"/>
-      <c r="I5" s="48">
+        <v>19635.6129</v>
+      </c>
+      <c r="H5" s="48"/>
+      <c r="I5" s="49">
         <v>0.0</v>
       </c>
     </row>
     <row r="6" ht="12.0" customHeight="1">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="41" t="s">
         <v>32</v>
       </c>
       <c r="B6" s="50">
@@ -1732,11 +1722,11 @@
         <v>28.0</v>
       </c>
       <c r="F6" s="54">
-        <v>611109.0</v>
+        <v>579221.0</v>
       </c>
       <c r="G6" s="55">
         <f t="shared" si="1"/>
-        <v>21825.32143</v>
+        <v>20686.46429</v>
       </c>
       <c r="H6" s="56"/>
       <c r="I6" s="57">
@@ -1744,7 +1734,7 @@
       </c>
     </row>
     <row r="7" ht="12.0" customHeight="1">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="41" t="s">
         <v>32</v>
       </c>
       <c r="B7" s="50">
@@ -1760,11 +1750,11 @@
         <v>31.0</v>
       </c>
       <c r="F7" s="54">
-        <v>711175.0</v>
+        <v>674925.0</v>
       </c>
       <c r="G7" s="55">
         <f t="shared" si="1"/>
-        <v>22941.12903</v>
+        <v>21771.77419</v>
       </c>
       <c r="H7" s="56"/>
       <c r="I7" s="57">
@@ -1772,7 +1762,7 @@
       </c>
     </row>
     <row r="8" ht="12.0" customHeight="1">
-      <c r="A8" s="49" t="s">
+      <c r="A8" s="41" t="s">
         <v>32</v>
       </c>
       <c r="B8" s="50">
@@ -1788,11 +1778,11 @@
         <v>30.0</v>
       </c>
       <c r="F8" s="59">
-        <v>756518.0</v>
+        <v>722009.0</v>
       </c>
       <c r="G8" s="60">
         <f t="shared" si="1"/>
-        <v>25217.26667</v>
+        <v>24066.96667</v>
       </c>
       <c r="H8" s="56"/>
       <c r="I8" s="57">
@@ -1800,7 +1790,7 @@
       </c>
     </row>
     <row r="9" ht="12.0" customHeight="1">
-      <c r="A9" s="49" t="s">
+      <c r="A9" s="41" t="s">
         <v>32</v>
       </c>
       <c r="B9" s="50">
@@ -1816,11 +1806,11 @@
         <v>31.0</v>
       </c>
       <c r="F9" s="59">
-        <v>823449.0</v>
+        <v>787333.0</v>
       </c>
       <c r="G9" s="60">
         <f t="shared" si="1"/>
-        <v>26562.87097</v>
+        <v>25397.83871</v>
       </c>
       <c r="H9" s="56"/>
       <c r="I9" s="57">
@@ -1828,7 +1818,7 @@
       </c>
     </row>
     <row r="10" ht="12.0" customHeight="1">
-      <c r="A10" s="49" t="s">
+      <c r="A10" s="41" t="s">
         <v>32</v>
       </c>
       <c r="B10" s="50">
@@ -1844,11 +1834,11 @@
         <v>30.0</v>
       </c>
       <c r="F10" s="59">
-        <v>865166.0</v>
+        <v>827861.0</v>
       </c>
       <c r="G10" s="60">
         <f t="shared" si="1"/>
-        <v>28838.86667</v>
+        <v>27595.36667</v>
       </c>
       <c r="H10" s="56"/>
       <c r="I10" s="57">
@@ -1856,7 +1846,7 @@
       </c>
     </row>
     <row r="11" ht="12.0" customHeight="1">
-      <c r="A11" s="49" t="s">
+      <c r="A11" s="41" t="s">
         <v>32</v>
       </c>
       <c r="B11" s="50">
@@ -1872,11 +1862,11 @@
         <v>31.0</v>
       </c>
       <c r="F11" s="59">
-        <v>904153.0</v>
+        <v>865862.0</v>
       </c>
       <c r="G11" s="60">
         <f t="shared" si="1"/>
-        <v>29166.22581</v>
+        <v>27931.03226</v>
       </c>
       <c r="H11" s="56"/>
       <c r="I11" s="57">
@@ -1884,7 +1874,7 @@
       </c>
     </row>
     <row r="12" ht="12.0" customHeight="1">
-      <c r="A12" s="49" t="s">
+      <c r="A12" s="41" t="s">
         <v>32</v>
       </c>
       <c r="B12" s="50">
@@ -1900,11 +1890,11 @@
         <v>31.0</v>
       </c>
       <c r="F12" s="59">
-        <v>896327.0</v>
+        <v>860522.0</v>
       </c>
       <c r="G12" s="60">
         <f t="shared" si="1"/>
-        <v>28913.77419</v>
+        <v>27758.77419</v>
       </c>
       <c r="H12" s="56"/>
       <c r="I12" s="57">
@@ -1912,7 +1902,7 @@
       </c>
     </row>
     <row r="13" ht="12.0" customHeight="1">
-      <c r="A13" s="49" t="s">
+      <c r="A13" s="41" t="s">
         <v>32</v>
       </c>
       <c r="B13" s="50">
@@ -1928,11 +1918,11 @@
         <v>30.0</v>
       </c>
       <c r="F13" s="59">
-        <v>867898.0</v>
+        <v>831182.0</v>
       </c>
       <c r="G13" s="60">
         <f t="shared" si="1"/>
-        <v>28929.93333</v>
+        <v>27706.06667</v>
       </c>
       <c r="H13" s="56"/>
       <c r="I13" s="57">
@@ -1940,7 +1930,7 @@
       </c>
     </row>
     <row r="14" ht="12.0" customHeight="1">
-      <c r="A14" s="49" t="s">
+      <c r="A14" s="41" t="s">
         <v>32</v>
       </c>
       <c r="B14" s="50">
@@ -1956,11 +1946,11 @@
         <v>31.0</v>
       </c>
       <c r="F14" s="59">
-        <v>820507.0</v>
+        <v>783757.0</v>
       </c>
       <c r="G14" s="60">
         <f t="shared" si="1"/>
-        <v>26467.96774</v>
+        <v>25282.48387</v>
       </c>
       <c r="H14" s="56"/>
       <c r="I14" s="57">
@@ -1968,7 +1958,7 @@
       </c>
     </row>
     <row r="15" ht="12.0" customHeight="1">
-      <c r="A15" s="49" t="s">
+      <c r="A15" s="41" t="s">
         <v>32</v>
       </c>
       <c r="B15" s="50">
@@ -1984,11 +1974,11 @@
         <v>30.0</v>
       </c>
       <c r="F15" s="59">
-        <v>681377.0</v>
+        <v>647661.0</v>
       </c>
       <c r="G15" s="60">
         <f t="shared" si="1"/>
-        <v>22712.56667</v>
+        <v>21588.7</v>
       </c>
       <c r="H15" s="56"/>
       <c r="I15" s="57">
@@ -2012,11 +2002,11 @@
         <v>31.0</v>
       </c>
       <c r="F16" s="65">
-        <v>663812.0</v>
+        <v>631377.0</v>
       </c>
       <c r="G16" s="66">
         <f t="shared" si="1"/>
-        <v>21413.29032</v>
+        <v>20367</v>
       </c>
       <c r="H16" s="67"/>
       <c r="I16" s="68">
@@ -2024,10 +2014,10 @@
       </c>
     </row>
     <row r="17" ht="12.0" customHeight="1">
-      <c r="A17" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="41">
+      <c r="A17" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="42">
         <v>2016.0</v>
       </c>
       <c r="C17" s="51" t="s">
@@ -2040,11 +2030,11 @@
         <v>31.0</v>
       </c>
       <c r="F17" s="69">
-        <v>648400.0</v>
-      </c>
-      <c r="G17" s="46">
-        <f t="shared" si="1"/>
-        <v>20916.12903</v>
+        <v>617719.0</v>
+      </c>
+      <c r="G17" s="47">
+        <f t="shared" si="1"/>
+        <v>19926.41935</v>
       </c>
       <c r="H17" s="70"/>
       <c r="I17" s="57">
@@ -2052,7 +2042,7 @@
       </c>
     </row>
     <row r="18" ht="12.0" customHeight="1">
-      <c r="A18" s="49" t="s">
+      <c r="A18" s="41" t="s">
         <v>32</v>
       </c>
       <c r="B18" s="50">
@@ -2068,11 +2058,11 @@
         <v>29.0</v>
       </c>
       <c r="F18" s="59">
-        <v>649085.0</v>
+        <v>616805.0</v>
       </c>
       <c r="G18" s="55">
         <f t="shared" si="1"/>
-        <v>22382.24138</v>
+        <v>21269.13793</v>
       </c>
       <c r="H18" s="71"/>
       <c r="I18" s="57">
@@ -2080,7 +2070,7 @@
       </c>
     </row>
     <row r="19" ht="12.0" customHeight="1">
-      <c r="A19" s="49" t="s">
+      <c r="A19" s="41" t="s">
         <v>32</v>
       </c>
       <c r="B19" s="50">
@@ -2096,11 +2086,11 @@
         <v>31.0</v>
       </c>
       <c r="F19" s="59">
-        <v>724838.0</v>
+        <v>689895.0</v>
       </c>
       <c r="G19" s="55">
         <f t="shared" si="1"/>
-        <v>23381.87097</v>
+        <v>22254.67742</v>
       </c>
       <c r="H19" s="71"/>
       <c r="I19" s="57">
@@ -2108,7 +2098,7 @@
       </c>
     </row>
     <row r="20" ht="12.0" customHeight="1">
-      <c r="A20" s="49" t="s">
+      <c r="A20" s="41" t="s">
         <v>32</v>
       </c>
       <c r="B20" s="50">
@@ -2124,11 +2114,11 @@
         <v>30.0</v>
       </c>
       <c r="F20" s="59">
-        <v>770617.0</v>
+        <v>735956.0</v>
       </c>
       <c r="G20" s="55">
         <f t="shared" si="1"/>
-        <v>25687.23333</v>
+        <v>24531.86667</v>
       </c>
       <c r="H20" s="71"/>
       <c r="I20" s="57">
@@ -2136,7 +2126,7 @@
       </c>
     </row>
     <row r="21" ht="12.0" customHeight="1">
-      <c r="A21" s="49" t="s">
+      <c r="A21" s="41" t="s">
         <v>32</v>
       </c>
       <c r="B21" s="50">
@@ -2152,11 +2142,11 @@
         <v>31.0</v>
       </c>
       <c r="F21" s="59">
-        <v>848766.0</v>
+        <v>812257.0</v>
       </c>
       <c r="G21" s="55">
         <f t="shared" si="1"/>
-        <v>27379.54839</v>
+        <v>26201.83871</v>
       </c>
       <c r="H21" s="71"/>
       <c r="I21" s="57">
@@ -2164,7 +2154,7 @@
       </c>
     </row>
     <row r="22" ht="12.0" customHeight="1">
-      <c r="A22" s="49" t="s">
+      <c r="A22" s="41" t="s">
         <v>32</v>
       </c>
       <c r="B22" s="50">
@@ -2180,11 +2170,11 @@
         <v>30.0</v>
       </c>
       <c r="F22" s="59">
-        <v>879080.0</v>
+        <v>842400.0</v>
       </c>
       <c r="G22" s="55">
         <f t="shared" si="1"/>
-        <v>29302.66667</v>
+        <v>28080</v>
       </c>
       <c r="H22" s="71"/>
       <c r="I22" s="57">
@@ -2192,7 +2182,7 @@
       </c>
     </row>
     <row r="23" ht="12.0" customHeight="1">
-      <c r="A23" s="49" t="s">
+      <c r="A23" s="41" t="s">
         <v>32</v>
       </c>
       <c r="B23" s="50">
@@ -2208,11 +2198,11 @@
         <v>31.0</v>
       </c>
       <c r="F23" s="59">
-        <v>929157.0</v>
+        <v>892719.0</v>
       </c>
       <c r="G23" s="55">
         <f t="shared" si="1"/>
-        <v>29972.80645</v>
+        <v>28797.3871</v>
       </c>
       <c r="H23" s="71"/>
       <c r="I23" s="57">
@@ -2220,7 +2210,7 @@
       </c>
     </row>
     <row r="24" ht="12.0" customHeight="1">
-      <c r="A24" s="49" t="s">
+      <c r="A24" s="41" t="s">
         <v>32</v>
       </c>
       <c r="B24" s="50">
@@ -2236,11 +2226,11 @@
         <v>31.0</v>
       </c>
       <c r="F24" s="59">
-        <v>924906.0</v>
+        <v>888058.0</v>
       </c>
       <c r="G24" s="55">
         <f t="shared" si="1"/>
-        <v>29835.67742</v>
+        <v>28647.03226</v>
       </c>
       <c r="H24" s="71"/>
       <c r="I24" s="57">
@@ -2248,7 +2238,7 @@
       </c>
     </row>
     <row r="25" ht="12.0" customHeight="1">
-      <c r="A25" s="49" t="s">
+      <c r="A25" s="41" t="s">
         <v>32</v>
       </c>
       <c r="B25" s="50">
@@ -2264,11 +2254,11 @@
         <v>30.0</v>
       </c>
       <c r="F25" s="59">
-        <v>898006.0</v>
+        <v>860783.0</v>
       </c>
       <c r="G25" s="55">
         <f t="shared" si="1"/>
-        <v>29933.53333</v>
+        <v>28692.76667</v>
       </c>
       <c r="H25" s="71"/>
       <c r="I25" s="57">
@@ -2276,7 +2266,7 @@
       </c>
     </row>
     <row r="26" ht="12.0" customHeight="1">
-      <c r="A26" s="49" t="s">
+      <c r="A26" s="41" t="s">
         <v>32</v>
       </c>
       <c r="B26" s="50">
@@ -2292,11 +2282,11 @@
         <v>31.0</v>
       </c>
       <c r="F26" s="59">
-        <v>841220.0</v>
+        <v>804733.0</v>
       </c>
       <c r="G26" s="55">
         <f t="shared" si="1"/>
-        <v>27136.12903</v>
+        <v>25959.12903</v>
       </c>
       <c r="H26" s="71"/>
       <c r="I26" s="57">
@@ -2304,7 +2294,7 @@
       </c>
     </row>
     <row r="27" ht="12.0" customHeight="1">
-      <c r="A27" s="49" t="s">
+      <c r="A27" s="41" t="s">
         <v>32</v>
       </c>
       <c r="B27" s="50">
@@ -2320,11 +2310,11 @@
         <v>30.0</v>
       </c>
       <c r="F27" s="59">
-        <v>700286.0</v>
+        <v>665906.0</v>
       </c>
       <c r="G27" s="55">
         <f t="shared" si="1"/>
-        <v>23342.86667</v>
+        <v>22196.86667</v>
       </c>
       <c r="H27" s="71"/>
       <c r="I27" s="57">
@@ -2348,11 +2338,11 @@
         <v>31.0</v>
       </c>
       <c r="F28" s="65">
-        <v>691212.0</v>
+        <v>659206.0</v>
       </c>
       <c r="G28" s="55">
         <f t="shared" si="1"/>
-        <v>22297.16129</v>
+        <v>21264.70968</v>
       </c>
       <c r="H28" s="71"/>
       <c r="I28" s="68">
@@ -2360,10 +2350,10 @@
       </c>
     </row>
     <row r="29" ht="12.0" customHeight="1">
-      <c r="A29" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29" s="41">
+      <c r="A29" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="42">
         <v>2017.0</v>
       </c>
       <c r="C29" s="51" t="s">
@@ -2376,11 +2366,11 @@
         <v>31.0</v>
       </c>
       <c r="F29" s="69">
-        <v>679670.0</v>
-      </c>
-      <c r="G29" s="46">
-        <f t="shared" si="1"/>
-        <v>21924.83871</v>
+        <v>648039.0</v>
+      </c>
+      <c r="G29" s="47">
+        <f t="shared" si="1"/>
+        <v>20904.48387</v>
       </c>
       <c r="H29" s="70"/>
       <c r="I29" s="57">
@@ -2388,7 +2378,7 @@
       </c>
     </row>
     <row r="30" ht="12.0" customHeight="1">
-      <c r="A30" s="49" t="s">
+      <c r="A30" s="41" t="s">
         <v>32</v>
       </c>
       <c r="B30" s="50">
@@ -2404,11 +2394,11 @@
         <v>28.0</v>
       </c>
       <c r="F30" s="59">
-        <v>645200.0</v>
+        <v>614202.0</v>
       </c>
       <c r="G30" s="55">
         <f t="shared" si="1"/>
-        <v>23042.85714</v>
+        <v>21935.78571</v>
       </c>
       <c r="H30" s="71"/>
       <c r="I30" s="57">
@@ -2416,7 +2406,7 @@
       </c>
     </row>
     <row r="31" ht="12.0" customHeight="1">
-      <c r="A31" s="49" t="s">
+      <c r="A31" s="41" t="s">
         <v>32</v>
       </c>
       <c r="B31" s="50">
@@ -2432,11 +2422,11 @@
         <v>31.0</v>
       </c>
       <c r="F31" s="59">
-        <v>757864.0</v>
+        <v>722282.0</v>
       </c>
       <c r="G31" s="55">
         <f t="shared" si="1"/>
-        <v>24447.22581</v>
+        <v>23299.41935</v>
       </c>
       <c r="H31" s="71"/>
       <c r="I31" s="57">
@@ -2444,7 +2434,7 @@
       </c>
     </row>
     <row r="32" ht="12.0" customHeight="1">
-      <c r="A32" s="49" t="s">
+      <c r="A32" s="41" t="s">
         <v>32</v>
       </c>
       <c r="B32" s="50">
@@ -2460,11 +2450,11 @@
         <v>30.0</v>
       </c>
       <c r="F32" s="59">
-        <v>794482.0</v>
+        <v>761150.0</v>
       </c>
       <c r="G32" s="55">
         <f t="shared" si="1"/>
-        <v>26482.73333</v>
+        <v>25371.66667</v>
       </c>
       <c r="H32" s="71"/>
       <c r="I32" s="57">
@@ -2472,7 +2462,7 @@
       </c>
     </row>
     <row r="33" ht="12.0" customHeight="1">
-      <c r="A33" s="49" t="s">
+      <c r="A33" s="41" t="s">
         <v>32</v>
       </c>
       <c r="B33" s="50">
@@ -2488,11 +2478,11 @@
         <v>31.0</v>
       </c>
       <c r="F33" s="59">
-        <v>885257.0</v>
+        <v>848181.0</v>
       </c>
       <c r="G33" s="55">
         <f t="shared" si="1"/>
-        <v>28556.67742</v>
+        <v>27360.67742</v>
       </c>
       <c r="H33" s="71"/>
       <c r="I33" s="57">
@@ -2500,7 +2490,7 @@
       </c>
     </row>
     <row r="34" ht="12.0" customHeight="1">
-      <c r="A34" s="49" t="s">
+      <c r="A34" s="41" t="s">
         <v>32</v>
       </c>
       <c r="B34" s="50">
@@ -2516,11 +2506,11 @@
         <v>30.0</v>
       </c>
       <c r="F34" s="59">
-        <v>917749.0</v>
+        <v>880536.0</v>
       </c>
       <c r="G34" s="55">
         <f t="shared" si="1"/>
-        <v>30591.63333</v>
+        <v>29351.2</v>
       </c>
       <c r="H34" s="71"/>
       <c r="I34" s="57">
@@ -2528,7 +2518,7 @@
       </c>
     </row>
     <row r="35" ht="12.0" customHeight="1">
-      <c r="A35" s="49" t="s">
+      <c r="A35" s="41" t="s">
         <v>32</v>
       </c>
       <c r="B35" s="50">
@@ -2544,11 +2534,11 @@
         <v>31.0</v>
       </c>
       <c r="F35" s="59">
-        <v>968496.0</v>
+        <v>931416.0</v>
       </c>
       <c r="G35" s="55">
         <f t="shared" si="1"/>
-        <v>31241.80645</v>
+        <v>30045.67742</v>
       </c>
       <c r="H35" s="71"/>
       <c r="I35" s="57">
@@ -2556,7 +2546,7 @@
       </c>
     </row>
     <row r="36" ht="12.0" customHeight="1">
-      <c r="A36" s="49" t="s">
+      <c r="A36" s="41" t="s">
         <v>32</v>
       </c>
       <c r="B36" s="50">
@@ -2572,11 +2562,11 @@
         <v>31.0</v>
       </c>
       <c r="F36" s="59">
-        <v>961986.0</v>
+        <v>924678.0</v>
       </c>
       <c r="G36" s="55">
         <f t="shared" si="1"/>
-        <v>31031.80645</v>
+        <v>29828.32258</v>
       </c>
       <c r="H36" s="71"/>
       <c r="I36" s="57">
@@ -2584,7 +2574,7 @@
       </c>
     </row>
     <row r="37" ht="12.0" customHeight="1">
-      <c r="A37" s="49" t="s">
+      <c r="A37" s="41" t="s">
         <v>32</v>
       </c>
       <c r="B37" s="50">
@@ -2600,11 +2590,11 @@
         <v>30.0</v>
       </c>
       <c r="F37" s="59">
-        <v>931709.0</v>
+        <v>894309.0</v>
       </c>
       <c r="G37" s="55">
         <f t="shared" si="1"/>
-        <v>31056.96667</v>
+        <v>29810.3</v>
       </c>
       <c r="H37" s="71"/>
       <c r="I37" s="57">
@@ -2612,7 +2602,7 @@
       </c>
     </row>
     <row r="38" ht="12.0" customHeight="1">
-      <c r="A38" s="49" t="s">
+      <c r="A38" s="41" t="s">
         <v>32</v>
       </c>
       <c r="B38" s="50">
@@ -2628,11 +2618,11 @@
         <v>31.0</v>
       </c>
       <c r="F38" s="59">
-        <v>879305.0</v>
+        <v>841752.0</v>
       </c>
       <c r="G38" s="55">
         <f t="shared" si="1"/>
-        <v>28364.67742</v>
+        <v>27153.29032</v>
       </c>
       <c r="H38" s="71"/>
       <c r="I38" s="57">
@@ -2640,7 +2630,7 @@
       </c>
     </row>
     <row r="39" ht="12.0" customHeight="1">
-      <c r="A39" s="49" t="s">
+      <c r="A39" s="41" t="s">
         <v>32</v>
       </c>
       <c r="B39" s="50">
@@ -2656,11 +2646,11 @@
         <v>30.0</v>
       </c>
       <c r="F39" s="59">
-        <v>726813.0</v>
+        <v>691756.0</v>
       </c>
       <c r="G39" s="55">
         <f t="shared" si="1"/>
-        <v>24227.1</v>
+        <v>23058.53333</v>
       </c>
       <c r="H39" s="71"/>
       <c r="I39" s="57">
@@ -2684,11 +2674,11 @@
         <v>31.0</v>
       </c>
       <c r="F40" s="65">
-        <v>699089.0</v>
+        <v>667190.0</v>
       </c>
       <c r="G40" s="55">
         <f t="shared" si="1"/>
-        <v>22551.25806</v>
+        <v>21522.25806</v>
       </c>
       <c r="H40" s="71"/>
       <c r="I40" s="68">
@@ -2696,10 +2686,10 @@
       </c>
     </row>
     <row r="41" ht="12.0" customHeight="1">
-      <c r="A41" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="B41" s="41">
+      <c r="A41" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="B41" s="42">
         <v>2018.0</v>
       </c>
       <c r="C41" s="51" t="s">
@@ -2712,11 +2702,11 @@
         <v>31.0</v>
       </c>
       <c r="F41" s="69">
-        <v>706171.0</v>
-      </c>
-      <c r="G41" s="46">
-        <f t="shared" si="1"/>
-        <v>22779.70968</v>
+        <v>673532.0</v>
+      </c>
+      <c r="G41" s="47">
+        <f t="shared" si="1"/>
+        <v>21726.83871</v>
       </c>
       <c r="H41" s="70"/>
       <c r="I41" s="72">
@@ -2724,7 +2714,7 @@
       </c>
     </row>
     <row r="42" ht="12.0" customHeight="1">
-      <c r="A42" s="49" t="s">
+      <c r="A42" s="41" t="s">
         <v>32</v>
       </c>
       <c r="B42" s="50">
@@ -2740,11 +2730,11 @@
         <v>28.0</v>
       </c>
       <c r="F42" s="59">
-        <v>664513.0</v>
+        <v>634453.0</v>
       </c>
       <c r="G42" s="55">
         <f t="shared" si="1"/>
-        <v>23732.60714</v>
+        <v>22659.03571</v>
       </c>
       <c r="H42" s="71"/>
       <c r="I42" s="57">
@@ -2752,7 +2742,7 @@
       </c>
     </row>
     <row r="43" ht="12.0" customHeight="1">
-      <c r="A43" s="49" t="s">
+      <c r="A43" s="41" t="s">
         <v>32</v>
       </c>
       <c r="B43" s="50">
@@ -2768,11 +2758,11 @@
         <v>31.0</v>
       </c>
       <c r="F43" s="59">
-        <v>772263.0</v>
+        <v>738535.0</v>
       </c>
       <c r="G43" s="55">
         <f t="shared" si="1"/>
-        <v>24911.70968</v>
+        <v>23823.70968</v>
       </c>
       <c r="H43" s="71"/>
       <c r="I43" s="57">
@@ -2780,7 +2770,7 @@
       </c>
     </row>
     <row r="44" ht="12.0" customHeight="1">
-      <c r="A44" s="49" t="s">
+      <c r="A44" s="41" t="s">
         <v>32</v>
       </c>
       <c r="B44" s="50">
@@ -2796,11 +2786,11 @@
         <v>30.0</v>
       </c>
       <c r="F44" s="59">
-        <v>831443.0</v>
+        <v>796531.0</v>
       </c>
       <c r="G44" s="55">
         <f t="shared" si="1"/>
-        <v>27714.76667</v>
+        <v>26551.03333</v>
       </c>
       <c r="H44" s="71"/>
       <c r="I44" s="57">
@@ -2808,7 +2798,7 @@
       </c>
     </row>
     <row r="45" ht="12.0" customHeight="1">
-      <c r="A45" s="49" t="s">
+      <c r="A45" s="41" t="s">
         <v>32</v>
       </c>
       <c r="B45" s="50">
@@ -2824,11 +2814,11 @@
         <v>31.0</v>
       </c>
       <c r="F45" s="59">
-        <v>908191.0</v>
+        <v>870762.0</v>
       </c>
       <c r="G45" s="55">
         <f t="shared" si="1"/>
-        <v>29296.48387</v>
+        <v>28089.09677</v>
       </c>
       <c r="H45" s="71"/>
       <c r="I45" s="57">
@@ -2836,7 +2826,7 @@
       </c>
     </row>
     <row r="46" ht="12.0" customHeight="1">
-      <c r="A46" s="49" t="s">
+      <c r="A46" s="41" t="s">
         <v>32</v>
       </c>
       <c r="B46" s="50">
@@ -2852,11 +2842,11 @@
         <v>30.0</v>
       </c>
       <c r="F46" s="59">
-        <v>951816.0</v>
+        <v>915907.0</v>
       </c>
       <c r="G46" s="55">
         <f t="shared" si="1"/>
-        <v>31727.2</v>
+        <v>30530.23333</v>
       </c>
       <c r="H46" s="71"/>
       <c r="I46" s="57">
@@ -2864,7 +2854,7 @@
       </c>
     </row>
     <row r="47" ht="12.0" customHeight="1">
-      <c r="A47" s="49" t="s">
+      <c r="A47" s="41" t="s">
         <v>32</v>
       </c>
       <c r="B47" s="50">
@@ -2880,11 +2870,11 @@
         <v>31.0</v>
       </c>
       <c r="F47" s="59">
-        <v>1004922.0</v>
+        <v>967975.0</v>
       </c>
       <c r="G47" s="55">
         <f t="shared" si="1"/>
-        <v>32416.83871</v>
+        <v>31225</v>
       </c>
       <c r="H47" s="71"/>
       <c r="I47" s="57">
@@ -2892,7 +2882,7 @@
       </c>
     </row>
     <row r="48" ht="12.0" customHeight="1">
-      <c r="A48" s="49" t="s">
+      <c r="A48" s="41" t="s">
         <v>32</v>
       </c>
       <c r="B48" s="50">
@@ -2908,11 +2898,11 @@
         <v>31.0</v>
       </c>
       <c r="F48" s="59">
-        <v>998484.0</v>
+        <v>961765.0</v>
       </c>
       <c r="G48" s="55">
         <f t="shared" si="1"/>
-        <v>32209.16129</v>
+        <v>31024.67742</v>
       </c>
       <c r="H48" s="71"/>
       <c r="I48" s="57">
@@ -2920,7 +2910,7 @@
       </c>
     </row>
     <row r="49" ht="12.0" customHeight="1">
-      <c r="A49" s="49" t="s">
+      <c r="A49" s="41" t="s">
         <v>32</v>
       </c>
       <c r="B49" s="50">
@@ -2936,11 +2926,11 @@
         <v>30.0</v>
       </c>
       <c r="F49" s="59">
-        <v>959099.0</v>
+        <v>923908.0</v>
       </c>
       <c r="G49" s="55">
         <f t="shared" si="1"/>
-        <v>31969.96667</v>
+        <v>30796.93333</v>
       </c>
       <c r="H49" s="71"/>
       <c r="I49" s="57">
@@ -2948,7 +2938,7 @@
       </c>
     </row>
     <row r="50" ht="12.0" customHeight="1">
-      <c r="A50" s="49" t="s">
+      <c r="A50" s="41" t="s">
         <v>32</v>
       </c>
       <c r="B50" s="50">
@@ -2964,11 +2954,11 @@
         <v>31.0</v>
       </c>
       <c r="F50" s="59">
-        <v>917279.0</v>
+        <v>880507.0</v>
       </c>
       <c r="G50" s="55">
         <f t="shared" si="1"/>
-        <v>29589.64516</v>
+        <v>28403.45161</v>
       </c>
       <c r="H50" s="71"/>
       <c r="I50" s="57">
@@ -2976,7 +2966,7 @@
       </c>
     </row>
     <row r="51" ht="12.0" customHeight="1">
-      <c r="A51" s="49" t="s">
+      <c r="A51" s="41" t="s">
         <v>32</v>
       </c>
       <c r="B51" s="50">
@@ -2992,11 +2982,11 @@
         <v>30.0</v>
       </c>
       <c r="F51" s="59">
-        <v>760804.0</v>
+        <v>727458.0</v>
       </c>
       <c r="G51" s="55">
         <f t="shared" si="1"/>
-        <v>25360.13333</v>
+        <v>24248.6</v>
       </c>
       <c r="H51" s="71"/>
       <c r="I51" s="57">
@@ -3020,11 +3010,11 @@
         <v>31.0</v>
       </c>
       <c r="F52" s="65">
-        <v>740137.0</v>
+        <v>709263.0</v>
       </c>
       <c r="G52" s="73">
         <f t="shared" si="1"/>
-        <v>23875.3871</v>
+        <v>22879.45161</v>
       </c>
       <c r="H52" s="74"/>
       <c r="I52" s="68">
@@ -3032,35 +3022,35 @@
       </c>
     </row>
     <row r="53" ht="12.0" customHeight="1">
-      <c r="A53" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="B53" s="41">
+      <c r="A53" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="B53" s="42">
         <v>2019.0</v>
       </c>
-      <c r="C53" s="42" t="s">
+      <c r="C53" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="D53" s="43" t="s">
+      <c r="D53" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="E53" s="44">
+      <c r="E53" s="45">
         <v>31.0</v>
       </c>
       <c r="F53" s="69">
-        <v>730620.0</v>
-      </c>
-      <c r="G53" s="46">
-        <f t="shared" si="1"/>
-        <v>23568.3871</v>
+        <v>699975.0</v>
+      </c>
+      <c r="G53" s="47">
+        <f t="shared" si="1"/>
+        <v>22579.83871</v>
       </c>
       <c r="H53" s="70"/>
-      <c r="I53" s="48">
+      <c r="I53" s="49">
         <v>0.0</v>
       </c>
     </row>
     <row r="54" ht="12.0" customHeight="1">
-      <c r="A54" s="49" t="s">
+      <c r="A54" s="41" t="s">
         <v>32</v>
       </c>
       <c r="B54" s="50">
@@ -3076,11 +3066,11 @@
         <v>28.0</v>
       </c>
       <c r="F54" s="59">
-        <v>686902.0</v>
+        <v>657893.0</v>
       </c>
       <c r="G54" s="55">
         <f t="shared" si="1"/>
-        <v>24532.21429</v>
+        <v>23496.17857</v>
       </c>
       <c r="H54" s="71"/>
       <c r="I54" s="57">
@@ -3088,7 +3078,7 @@
       </c>
     </row>
     <row r="55" ht="12.0" customHeight="1">
-      <c r="A55" s="49" t="s">
+      <c r="A55" s="41" t="s">
         <v>32</v>
       </c>
       <c r="B55" s="50">
@@ -3104,11 +3094,11 @@
         <v>31.0</v>
       </c>
       <c r="F55" s="59">
-        <v>786938.0</v>
+        <v>753872.0</v>
       </c>
       <c r="G55" s="55">
         <f t="shared" si="1"/>
-        <v>25385.09677</v>
+        <v>24318.45161</v>
       </c>
       <c r="H55" s="71"/>
       <c r="I55" s="57">
@@ -3116,7 +3106,7 @@
       </c>
     </row>
     <row r="56" ht="12.0" customHeight="1">
-      <c r="A56" s="49" t="s">
+      <c r="A56" s="41" t="s">
         <v>32</v>
       </c>
       <c r="B56" s="50">
@@ -3132,11 +3122,11 @@
         <v>30.0</v>
       </c>
       <c r="F56" s="59">
-        <v>848544.0</v>
+        <v>815412.0</v>
       </c>
       <c r="G56" s="55">
         <f t="shared" si="1"/>
-        <v>28284.8</v>
+        <v>27180.4</v>
       </c>
       <c r="H56" s="71"/>
       <c r="I56" s="57">
@@ -3144,7 +3134,7 @@
       </c>
     </row>
     <row r="57" ht="12.0" customHeight="1">
-      <c r="A57" s="49" t="s">
+      <c r="A57" s="41" t="s">
         <v>32</v>
       </c>
       <c r="B57" s="50">
@@ -3160,11 +3150,11 @@
         <v>31.0</v>
       </c>
       <c r="F57" s="59">
-        <v>921729.0</v>
+        <v>886422.0</v>
       </c>
       <c r="G57" s="55">
         <f t="shared" si="1"/>
-        <v>29733.19355</v>
+        <v>28594.25806</v>
       </c>
       <c r="H57" s="71"/>
       <c r="I57" s="57">
@@ -3172,7 +3162,7 @@
       </c>
     </row>
     <row r="58" ht="12.0" customHeight="1">
-      <c r="A58" s="49" t="s">
+      <c r="A58" s="41" t="s">
         <v>32</v>
       </c>
       <c r="B58" s="50">
@@ -3188,11 +3178,11 @@
         <v>30.0</v>
       </c>
       <c r="F58" s="59">
-        <v>966728.0</v>
+        <v>932305.0</v>
       </c>
       <c r="G58" s="55">
         <f t="shared" si="1"/>
-        <v>32224.26667</v>
+        <v>31076.83333</v>
       </c>
       <c r="H58" s="71"/>
       <c r="I58" s="57">
@@ -3200,7 +3190,7 @@
       </c>
     </row>
     <row r="59" ht="12.0" customHeight="1">
-      <c r="A59" s="49" t="s">
+      <c r="A59" s="41" t="s">
         <v>32</v>
       </c>
       <c r="B59" s="50">
@@ -3216,11 +3206,11 @@
         <v>31.0</v>
       </c>
       <c r="F59" s="59">
-        <v>1018454.0</v>
+        <v>982444.0</v>
       </c>
       <c r="G59" s="55">
         <f t="shared" si="1"/>
-        <v>32853.35484</v>
+        <v>31691.74194</v>
       </c>
       <c r="H59" s="71"/>
       <c r="I59" s="57">
@@ -3228,7 +3218,7 @@
       </c>
     </row>
     <row r="60" ht="12.0" customHeight="1">
-      <c r="A60" s="49" t="s">
+      <c r="A60" s="41" t="s">
         <v>32</v>
       </c>
       <c r="B60" s="50">
@@ -3244,11 +3234,11 @@
         <v>31.0</v>
       </c>
       <c r="F60" s="59">
-        <v>1005864.0</v>
+        <v>970256.0</v>
       </c>
       <c r="G60" s="55">
         <f t="shared" si="1"/>
-        <v>32447.22581</v>
+        <v>31298.58065</v>
       </c>
       <c r="H60" s="71"/>
       <c r="I60" s="57">
@@ -3256,7 +3246,7 @@
       </c>
     </row>
     <row r="61" ht="12.0" customHeight="1">
-      <c r="A61" s="49" t="s">
+      <c r="A61" s="41" t="s">
         <v>32</v>
       </c>
       <c r="B61" s="50">
@@ -3272,11 +3262,11 @@
         <v>30.0</v>
       </c>
       <c r="F61" s="59">
-        <v>966909.0</v>
+        <v>932411.0</v>
       </c>
       <c r="G61" s="55">
         <f t="shared" si="1"/>
-        <v>32230.3</v>
+        <v>31080.36667</v>
       </c>
       <c r="H61" s="71"/>
       <c r="I61" s="57">
@@ -3284,7 +3274,7 @@
       </c>
     </row>
     <row r="62" ht="12.0" customHeight="1">
-      <c r="A62" s="49" t="s">
+      <c r="A62" s="41" t="s">
         <v>32</v>
       </c>
       <c r="B62" s="50">
@@ -3300,11 +3290,11 @@
         <v>31.0</v>
       </c>
       <c r="F62" s="59">
-        <v>915646.0</v>
+        <v>880038.0</v>
       </c>
       <c r="G62" s="55">
         <f t="shared" si="1"/>
-        <v>29536.96774</v>
+        <v>28388.32258</v>
       </c>
       <c r="H62" s="71"/>
       <c r="I62" s="57">
@@ -3312,7 +3302,7 @@
       </c>
     </row>
     <row r="63" ht="12.0" customHeight="1">
-      <c r="A63" s="49" t="s">
+      <c r="A63" s="41" t="s">
         <v>32</v>
       </c>
       <c r="B63" s="50">
@@ -3328,11 +3318,11 @@
         <v>30.0</v>
       </c>
       <c r="F63" s="59">
-        <v>745750.0</v>
+        <v>713365.0</v>
       </c>
       <c r="G63" s="55">
         <f t="shared" si="1"/>
-        <v>24858.33333</v>
+        <v>23778.83333</v>
       </c>
       <c r="H63" s="71"/>
       <c r="I63" s="57">
@@ -3356,11 +3346,11 @@
         <v>31.0</v>
       </c>
       <c r="F64" s="65">
-        <v>739996.0</v>
+        <v>709543.0</v>
       </c>
       <c r="G64" s="75">
         <f t="shared" si="1"/>
-        <v>23870.83871</v>
+        <v>22888.48387</v>
       </c>
       <c r="H64" s="76"/>
       <c r="I64" s="68">
@@ -3368,7 +3358,7 @@
       </c>
     </row>
     <row r="65" ht="12.0" customHeight="1">
-      <c r="A65" s="40" t="s">
+      <c r="A65" s="41" t="s">
         <v>32</v>
       </c>
       <c r="B65" s="77">
@@ -3377,29 +3367,29 @@
       <c r="C65" s="78" t="s">
         <v>105</v>
       </c>
-      <c r="D65" s="43" t="s">
+      <c r="D65" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="E65" s="44">
+      <c r="E65" s="45">
         <v>31.0</v>
       </c>
       <c r="F65" s="69">
-        <v>729520.0</v>
-      </c>
-      <c r="G65" s="46">
-        <f t="shared" si="1"/>
-        <v>23532.90323</v>
+        <v>700208.0</v>
+      </c>
+      <c r="G65" s="47">
+        <f t="shared" si="1"/>
+        <v>22587.35484</v>
       </c>
       <c r="H65" s="70">
         <f>G65/G53-1</f>
-        <v>-0.001505570611</v>
-      </c>
-      <c r="I65" s="48">
+        <v>0.000332869031</v>
+      </c>
+      <c r="I65" s="49">
         <v>1.0</v>
       </c>
     </row>
     <row r="66" ht="12.0" customHeight="1">
-      <c r="A66" s="49" t="s">
+      <c r="A66" s="41" t="s">
         <v>32</v>
       </c>
       <c r="B66" s="79">
@@ -3415,22 +3405,22 @@
         <v>29.0</v>
       </c>
       <c r="F66" s="59">
-        <v>695111.0</v>
+        <v>666306.0</v>
       </c>
       <c r="G66" s="55">
         <f t="shared" si="1"/>
-        <v>23969.34483</v>
+        <v>22976.06897</v>
       </c>
       <c r="H66" s="71">
         <f t="shared" ref="H66:H76" si="2">(sum(F$65:F66)/sum(E$65:E66))/((sum(F$53:F54)/sum(E$53:E54)))-1</f>
-        <v>-0.01173516178</v>
+        <v>-0.01040545424</v>
       </c>
       <c r="I66" s="57">
         <v>1.0</v>
       </c>
     </row>
     <row r="67" ht="12.0" customHeight="1">
-      <c r="A67" s="49" t="s">
+      <c r="A67" s="41" t="s">
         <v>32</v>
       </c>
       <c r="B67" s="79">
@@ -3446,22 +3436,22 @@
         <v>31.0</v>
       </c>
       <c r="F67" s="59">
-        <v>463660.0</v>
+        <v>443239.0</v>
       </c>
       <c r="G67" s="55">
         <f t="shared" si="1"/>
-        <v>14956.77419</v>
+        <v>14298.03226</v>
       </c>
       <c r="H67" s="71">
         <f t="shared" si="2"/>
-        <v>-0.1528353658</v>
+        <v>-0.1524214134</v>
       </c>
       <c r="I67" s="57">
         <v>1.0</v>
       </c>
     </row>
     <row r="68" ht="12.0" customHeight="1">
-      <c r="A68" s="49" t="s">
+      <c r="A68" s="41" t="s">
         <v>32</v>
       </c>
       <c r="B68" s="79">
@@ -3477,22 +3467,22 @@
         <v>30.0</v>
       </c>
       <c r="F68" s="59">
-        <v>103113.0</v>
+        <v>98482.0</v>
       </c>
       <c r="G68" s="55">
         <f t="shared" si="1"/>
-        <v>3437.1</v>
+        <v>3282.733333</v>
       </c>
       <c r="H68" s="71">
         <f t="shared" si="2"/>
-        <v>-0.3531138132</v>
+        <v>-0.3534792649</v>
       </c>
       <c r="I68" s="57">
         <v>1.0</v>
       </c>
     </row>
     <row r="69" ht="12.0" customHeight="1">
-      <c r="A69" s="49" t="s">
+      <c r="A69" s="41" t="s">
         <v>32</v>
       </c>
       <c r="B69" s="79">
@@ -3508,22 +3498,22 @@
         <v>31.0</v>
       </c>
       <c r="F69" s="59">
-        <v>133166.0</v>
+        <v>127925.0</v>
       </c>
       <c r="G69" s="55">
         <f t="shared" si="1"/>
-        <v>4295.677419</v>
+        <v>4126.612903</v>
       </c>
       <c r="H69" s="71">
         <f t="shared" si="2"/>
-        <v>-0.4689976495</v>
+        <v>-0.4695883152</v>
       </c>
       <c r="I69" s="57">
         <v>1.0</v>
       </c>
     </row>
     <row r="70" ht="12.0" customHeight="1">
-      <c r="A70" s="49" t="s">
+      <c r="A70" s="41" t="s">
         <v>32</v>
       </c>
       <c r="B70" s="79">
@@ -3539,22 +3529,22 @@
         <v>30.0</v>
       </c>
       <c r="F70" s="59">
-        <v>200748.0</v>
+        <v>193763.0</v>
       </c>
       <c r="G70" s="55">
         <f t="shared" si="1"/>
-        <v>6691.6</v>
+        <v>6458.766667</v>
       </c>
       <c r="H70" s="71">
         <f t="shared" si="2"/>
-        <v>-0.5320125915</v>
+        <v>-0.5327165577</v>
       </c>
       <c r="I70" s="57">
         <v>1.0</v>
       </c>
     </row>
     <row r="71" ht="12.0" customHeight="1">
-      <c r="A71" s="49" t="s">
+      <c r="A71" s="41" t="s">
         <v>32</v>
       </c>
       <c r="B71" s="79">
@@ -3570,22 +3560,22 @@
         <v>31.0</v>
       </c>
       <c r="F71" s="59">
-        <v>400394.0</v>
+        <v>388459.0</v>
       </c>
       <c r="G71" s="55">
         <f t="shared" si="1"/>
-        <v>12915.93548</v>
+        <v>12530.93548</v>
       </c>
       <c r="H71" s="71">
         <f t="shared" si="2"/>
-        <v>-0.544806389</v>
+        <v>-0.545051994</v>
       </c>
       <c r="I71" s="57">
         <v>1.0</v>
       </c>
     </row>
     <row r="72" ht="12.0" customHeight="1">
-      <c r="A72" s="49" t="s">
+      <c r="A72" s="41" t="s">
         <v>32</v>
       </c>
       <c r="B72" s="79">
@@ -3601,22 +3591,22 @@
         <v>31.0</v>
       </c>
       <c r="F72" s="59">
-        <v>487598.0</v>
+        <v>473656.0</v>
       </c>
       <c r="G72" s="55">
         <f t="shared" si="1"/>
-        <v>15728.96774</v>
+        <v>15279.22581</v>
       </c>
       <c r="H72" s="71">
         <f t="shared" si="2"/>
-        <v>-0.5405911246</v>
+        <v>-0.5402956787</v>
       </c>
       <c r="I72" s="57">
         <v>1.0</v>
       </c>
     </row>
     <row r="73" ht="12.0" customHeight="1">
-      <c r="A73" s="49" t="s">
+      <c r="A73" s="41" t="s">
         <v>32</v>
       </c>
       <c r="B73" s="79">
@@ -3632,22 +3622,22 @@
         <v>30.0</v>
       </c>
       <c r="F73" s="59">
-        <v>437087.0</v>
+        <v>421608.0</v>
       </c>
       <c r="G73" s="55">
         <f t="shared" si="1"/>
-        <v>14569.56667</v>
+        <v>14053.6</v>
       </c>
       <c r="H73" s="71">
         <f t="shared" si="2"/>
-        <v>-0.54150795</v>
+        <v>-0.5412361339</v>
       </c>
       <c r="I73" s="57">
         <v>1.0</v>
       </c>
     </row>
     <row r="74" ht="12.0" customHeight="1">
-      <c r="A74" s="49" t="s">
+      <c r="A74" s="41" t="s">
         <v>32</v>
       </c>
       <c r="B74" s="79">
@@ -3663,22 +3653,22 @@
         <v>31.0</v>
       </c>
       <c r="F74" s="59">
-        <v>390090.0</v>
+        <v>374299.0</v>
       </c>
       <c r="G74" s="55">
         <f t="shared" si="1"/>
-        <v>12583.54839</v>
+        <v>12074.16129</v>
       </c>
       <c r="H74" s="71">
         <f t="shared" si="2"/>
-        <v>-0.5448590094</v>
+        <v>-0.5446851262</v>
       </c>
       <c r="I74" s="57">
         <v>1.0</v>
       </c>
     </row>
     <row r="75" ht="12.0" customHeight="1">
-      <c r="A75" s="49" t="s">
+      <c r="A75" s="41" t="s">
         <v>32</v>
       </c>
       <c r="B75" s="79">
@@ -3694,15 +3684,15 @@
         <v>30.0</v>
       </c>
       <c r="F75" s="59">
-        <v>276551.0</v>
+        <v>265655.0</v>
       </c>
       <c r="G75" s="55">
         <f t="shared" si="1"/>
-        <v>9218.366667</v>
+        <v>8855.166667</v>
       </c>
       <c r="H75" s="71">
         <f t="shared" si="2"/>
-        <v>-0.5513744387</v>
+        <v>-0.5510597614</v>
       </c>
       <c r="I75" s="57">
         <v>1.0</v>
@@ -3725,22 +3715,22 @@
         <v>31.0</v>
       </c>
       <c r="F76" s="65">
-        <v>291770.0</v>
+        <v>280108.0</v>
       </c>
       <c r="G76" s="75">
         <f t="shared" si="1"/>
-        <v>9411.935484</v>
+        <v>9035.741935</v>
       </c>
       <c r="H76" s="76">
         <f t="shared" si="2"/>
-        <v>-0.5552370769</v>
+        <v>-0.5549000876</v>
       </c>
       <c r="I76" s="68">
         <v>1.0</v>
       </c>
     </row>
     <row r="77" ht="12.0" customHeight="1">
-      <c r="A77" s="40" t="s">
+      <c r="A77" s="41" t="s">
         <v>32</v>
       </c>
       <c r="B77" s="77">
@@ -3749,29 +3739,29 @@
       <c r="C77" s="78" t="s">
         <v>117</v>
       </c>
-      <c r="D77" s="43" t="s">
+      <c r="D77" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="E77" s="44">
+      <c r="E77" s="45">
         <v>31.0</v>
       </c>
       <c r="F77" s="69">
-        <v>257319.0</v>
-      </c>
-      <c r="G77" s="46">
-        <f t="shared" si="1"/>
-        <v>8300.612903</v>
+        <v>248753.0</v>
+      </c>
+      <c r="G77" s="47">
+        <f t="shared" si="1"/>
+        <v>8024.290323</v>
       </c>
       <c r="H77" s="70">
         <f>G77/G65-1</f>
-        <v>-0.6472762913</v>
-      </c>
-      <c r="I77" s="48">
+        <v>-0.6447441332</v>
+      </c>
+      <c r="I77" s="49">
         <v>1.0</v>
       </c>
     </row>
     <row r="78" ht="12.0" customHeight="1">
-      <c r="A78" s="49" t="s">
+      <c r="A78" s="41" t="s">
         <v>32</v>
       </c>
       <c r="B78" s="79">
@@ -3787,22 +3777,22 @@
         <v>28.0</v>
       </c>
       <c r="F78" s="59">
-        <v>222195.0</v>
+        <v>214175.0</v>
       </c>
       <c r="G78" s="55">
         <f t="shared" si="1"/>
-        <v>7935.535714</v>
+        <v>7649.107143</v>
       </c>
       <c r="H78" s="71">
         <f t="shared" ref="H78:H80" si="3">(sum(F$77:F78)/sum(E$77:E78))/((sum(F$65:F66)/sum(E$65:E66)))-1</f>
-        <v>-0.6577069038</v>
+        <v>-0.6554925619</v>
       </c>
       <c r="I78" s="57">
         <v>1.0</v>
       </c>
     </row>
     <row r="79" ht="12.0" customHeight="1">
-      <c r="A79" s="49" t="s">
+      <c r="A79" s="41" t="s">
         <v>32</v>
       </c>
       <c r="B79" s="79">
@@ -3818,22 +3808,22 @@
         <v>31.0</v>
       </c>
       <c r="F79" s="59">
-        <v>271191.0</v>
+        <v>261183.0</v>
       </c>
       <c r="G79" s="55">
         <f t="shared" si="1"/>
-        <v>8748.096774</v>
+        <v>8425.258065</v>
       </c>
       <c r="H79" s="71">
         <f t="shared" si="3"/>
-        <v>-0.5980247924</v>
+        <v>-0.5954383401</v>
       </c>
       <c r="I79" s="57">
         <v>1.0</v>
       </c>
     </row>
     <row r="80" ht="12.0" customHeight="1">
-      <c r="A80" s="49" t="s">
+      <c r="A80" s="41" t="s">
         <v>32</v>
       </c>
       <c r="B80" s="79">
@@ -3849,22 +3839,22 @@
         <v>30.0</v>
       </c>
       <c r="F80" s="59">
-        <v>293097.0</v>
+        <v>282465.0</v>
       </c>
       <c r="G80" s="55">
         <f t="shared" si="1"/>
-        <v>9769.9</v>
+        <v>9415.5</v>
       </c>
       <c r="H80" s="71">
         <f t="shared" si="3"/>
-        <v>-0.4714782385</v>
+        <v>-0.4681136583</v>
       </c>
       <c r="I80" s="57">
         <v>1.0</v>
       </c>
     </row>
     <row r="81" ht="12.0" customHeight="1">
-      <c r="A81" s="49" t="s">
+      <c r="A81" s="41" t="s">
         <v>32</v>
       </c>
       <c r="B81" s="79">
@@ -3887,7 +3877,7 @@
       </c>
     </row>
     <row r="82" ht="12.0" customHeight="1">
-      <c r="A82" s="49" t="s">
+      <c r="A82" s="41" t="s">
         <v>32</v>
       </c>
       <c r="B82" s="79">
@@ -3910,7 +3900,7 @@
       </c>
     </row>
     <row r="83" ht="12.0" customHeight="1">
-      <c r="A83" s="49" t="s">
+      <c r="A83" s="41" t="s">
         <v>32</v>
       </c>
       <c r="B83" s="79">
@@ -3933,7 +3923,7 @@
       </c>
     </row>
     <row r="84" ht="12.0" customHeight="1">
-      <c r="A84" s="49" t="s">
+      <c r="A84" s="41" t="s">
         <v>32</v>
       </c>
       <c r="B84" s="79">
@@ -3956,7 +3946,7 @@
       </c>
     </row>
     <row r="85" ht="12.0" customHeight="1">
-      <c r="A85" s="49" t="s">
+      <c r="A85" s="41" t="s">
         <v>32</v>
       </c>
       <c r="B85" s="79">
@@ -3979,7 +3969,7 @@
       </c>
     </row>
     <row r="86" ht="12.0" customHeight="1">
-      <c r="A86" s="49" t="s">
+      <c r="A86" s="41" t="s">
         <v>32</v>
       </c>
       <c r="B86" s="79">
@@ -4002,7 +3992,7 @@
       </c>
     </row>
     <row r="87" ht="12.0" customHeight="1">
-      <c r="A87" s="49" t="s">
+      <c r="A87" s="41" t="s">
         <v>32</v>
       </c>
       <c r="B87" s="79">
@@ -4095,9 +4085,9 @@
       <c r="A2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="31">
         <f>ERT_FLTS_YY!B2</f>
-        <v>44328</v>
+        <v>44351</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>6</v>
@@ -4167,7 +4157,7 @@
     </row>
     <row r="6" ht="12.75" customHeight="1">
       <c r="A6" s="90" t="s">
-        <v>11</v>
+        <v>132</v>
       </c>
       <c r="B6" s="91">
         <v>1991404.0</v>
@@ -4182,13 +4172,13 @@
         <v>8698.0</v>
       </c>
       <c r="F6" s="92">
-        <f t="shared" ref="F6:F35" si="1">E6/D6-1</f>
+        <f t="shared" ref="F6:F34" si="1">E6/D6-1</f>
         <v>-0.4715032203</v>
       </c>
     </row>
     <row r="7" ht="12.75" customHeight="1">
       <c r="A7" s="90" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B7" s="91">
         <v>246106.0</v>
@@ -4209,7 +4199,7 @@
     </row>
     <row r="8" ht="12.75" customHeight="1">
       <c r="A8" s="90" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B8" s="91">
         <v>245816.0</v>
@@ -4230,7 +4220,7 @@
     </row>
     <row r="9" ht="12.75" customHeight="1">
       <c r="A9" s="90" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B9" s="91">
         <v>152094.0</v>
@@ -4251,7 +4241,7 @@
     </row>
     <row r="10" ht="12.75" customHeight="1">
       <c r="A10" s="90" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B10" s="91">
         <v>105024.0</v>
@@ -4272,7 +4262,7 @@
     </row>
     <row r="11" ht="12.75" customHeight="1">
       <c r="A11" s="90" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B11" s="91">
         <v>82586.0</v>
@@ -4293,7 +4283,7 @@
     </row>
     <row r="12" ht="12.75" customHeight="1">
       <c r="A12" s="90" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B12" s="91">
         <v>150297.0</v>
@@ -4314,7 +4304,7 @@
     </row>
     <row r="13" ht="12.75" customHeight="1">
       <c r="A13" s="90" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B13" s="91">
         <v>136008.0</v>
@@ -4335,7 +4325,7 @@
     </row>
     <row r="14" ht="12.75" customHeight="1">
       <c r="A14" s="90" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B14" s="91">
         <v>42894.0</v>
@@ -4356,7 +4346,7 @@
     </row>
     <row r="15" ht="12.75" customHeight="1">
       <c r="A15" s="93" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B15" s="91">
         <v>64430.0</v>
@@ -4377,7 +4367,7 @@
     </row>
     <row r="16" ht="12.75" customHeight="1">
       <c r="A16" s="90" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B16" s="91">
         <v>603765.0</v>
@@ -4398,7 +4388,7 @@
     </row>
     <row r="17" ht="12.75" customHeight="1">
       <c r="A17" s="90" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B17" s="91">
         <v>652415.0</v>
@@ -4419,7 +4409,7 @@
     </row>
     <row r="18" ht="12.75" customHeight="1">
       <c r="A18" s="90" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B18" s="91">
         <v>135196.0</v>
@@ -4440,7 +4430,7 @@
     </row>
     <row r="19" ht="12.75" customHeight="1">
       <c r="A19" s="90" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B19" s="91">
         <v>157562.0</v>
@@ -4461,7 +4451,7 @@
     </row>
     <row r="20" ht="12.75" customHeight="1">
       <c r="A20" s="90" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B20" s="91">
         <v>111649.0</v>
@@ -4482,7 +4472,7 @@
     </row>
     <row r="21" ht="12.75" customHeight="1">
       <c r="A21" s="90" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B21" s="91">
         <v>311537.0</v>
@@ -4503,7 +4493,7 @@
     </row>
     <row r="22" ht="12.75" customHeight="1">
       <c r="A22" s="90" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B22" s="91">
         <v>56633.0</v>
@@ -4524,7 +4514,7 @@
     </row>
     <row r="23" ht="12.75" customHeight="1">
       <c r="A23" s="90" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B23" s="91">
         <v>60212.0</v>
@@ -4545,7 +4535,7 @@
     </row>
     <row r="24" ht="12.75" customHeight="1">
       <c r="A24" s="90" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B24" s="91">
         <v>24841.0</v>
@@ -4566,7 +4556,7 @@
     </row>
     <row r="25" ht="12.75" customHeight="1">
       <c r="A25" s="90" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B25" s="91">
         <v>265543.0</v>
@@ -4587,7 +4577,7 @@
     </row>
     <row r="26" ht="12.75" customHeight="1">
       <c r="A26" s="90" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B26" s="91">
         <v>141468.0</v>
@@ -4608,7 +4598,7 @@
     </row>
     <row r="27" ht="12.75" customHeight="1">
       <c r="A27" s="90" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B27" s="91">
         <v>174052.0</v>
@@ -4629,7 +4619,7 @@
     </row>
     <row r="28" ht="12.75" customHeight="1">
       <c r="A28" s="90" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B28" s="91">
         <v>147675.0</v>
@@ -4650,7 +4640,7 @@
     </row>
     <row r="29" ht="12.75" customHeight="1">
       <c r="A29" s="90" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B29" s="91">
         <v>134717.0</v>
@@ -4671,7 +4661,7 @@
     </row>
     <row r="30" ht="12.75" customHeight="1">
       <c r="A30" s="90" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B30" s="91">
         <v>86334.0</v>
@@ -4692,7 +4682,7 @@
     </row>
     <row r="31" ht="12.75" customHeight="1">
       <c r="A31" s="90" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B31" s="91">
         <v>70345.0</v>
@@ -4713,7 +4703,7 @@
     </row>
     <row r="32" ht="12.75" customHeight="1">
       <c r="A32" s="90" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B32" s="91">
         <v>383258.0</v>
@@ -4734,7 +4724,7 @@
     </row>
     <row r="33" ht="12.75" customHeight="1">
       <c r="A33" s="90" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B33" s="91">
         <v>176203.0</v>
@@ -4755,7 +4745,7 @@
     </row>
     <row r="34" ht="12.75" customHeight="1">
       <c r="A34" s="90" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B34" s="91">
         <v>214279.0</v>
@@ -4772,27 +4762,6 @@
       <c r="F34" s="92">
         <f t="shared" si="1"/>
         <v>-0.5409373235</v>
-      </c>
-    </row>
-    <row r="35" ht="12.75" customHeight="1">
-      <c r="A35" s="90" t="s">
-        <v>160</v>
-      </c>
-      <c r="B35" s="91">
-        <v>514914.0</v>
-      </c>
-      <c r="C35" s="91">
-        <v>182633.0</v>
-      </c>
-      <c r="D35" s="91">
-        <v>4255.0</v>
-      </c>
-      <c r="E35" s="91">
-        <v>1522.0</v>
-      </c>
-      <c r="F35" s="92">
-        <f t="shared" si="1"/>
-        <v>-0.6423031727</v>
       </c>
     </row>
   </sheetData>
@@ -4831,28 +4800,34 @@
       </c>
     </row>
     <row r="2" ht="12.0" customHeight="1">
-      <c r="A2" s="95"/>
-      <c r="B2" s="96"/>
+      <c r="A2" s="95">
+        <v>44351.0</v>
+      </c>
+      <c r="B2" s="96" t="s">
+        <v>164</v>
+      </c>
       <c r="C2" s="97"/>
-      <c r="D2" s="98"/>
+      <c r="D2" s="96" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="3" ht="12.0" customHeight="1">
-      <c r="A3" s="99"/>
-      <c r="B3" s="96"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="101"/>
+      <c r="A3" s="95"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="96"/>
     </row>
     <row r="4" ht="12.0" customHeight="1">
-      <c r="A4" s="99"/>
-      <c r="B4" s="96"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="101"/>
+      <c r="A4" s="95"/>
+      <c r="B4" s="98"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="96"/>
     </row>
     <row r="5" ht="12.0" customHeight="1">
-      <c r="A5" s="102"/>
-      <c r="B5" s="96"/>
-      <c r="C5" s="103"/>
-      <c r="D5" s="104"/>
+      <c r="A5" s="100"/>
+      <c r="B5" s="98"/>
+      <c r="C5" s="101"/>
+      <c r="D5" s="102"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
